--- a/output/MSCI China Index ROIC 2022-06_2022-6-11byQ整理版本.xlsx
+++ b/output/MSCI China Index ROIC 2022-06_2022-6-11byQ整理版本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lannist_S\Documents\WeChat Files\wxid_gsuoaoe3qm6222\FileStorage\MsgAttach\e45a4418ddd0f00d96edf3ac1099a4ac\File\2022-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nodejs\stock_msci_roic\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC5B134-EAE9-4A2B-A57E-EF712E92E3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D22E5-92D5-4C67-AE8F-9AF37E1FDD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19725" yWindow="6555" windowWidth="21615" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21615" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSCI China Index ROIC" sheetId="1" r:id="rId1"/>
@@ -3563,7 +3563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3599,6 +3599,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3688,7 +3696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3700,6 +3708,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12784,19 +12794,19 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="12">
         <v>7.8E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="11">
         <v>17.374199999999998</v>
       </c>
     </row>
@@ -14042,19 +14052,19 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="12">
         <v>5.33E-2</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="11">
         <v>4.5876000000000001</v>
       </c>
     </row>
